--- a/Mifos Automation Excels/Client/4464-ACTCTR-MEETING-EVERY1MONTH-SUBMITJLGloan-SYNK-DISP+REPAYwithMEETING-Monthlyloanevery2months.xlsx
+++ b/Mifos Automation Excels/Client/4464-ACTCTR-MEETING-EVERY1MONTH-SUBMITJLGloan-SYNK-DISP+REPAYwithMEETING-Monthlyloanevery2months.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="784" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="784" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -1005,7 +1005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1429,18 +1429,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>52</v>
       </c>
@@ -1480,17 +1486,18 @@
       <c r="M1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="18"/>
+      <c r="O1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="P1" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="Q1" s="22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="23">
@@ -1517,8 +1524,9 @@
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" s="20"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -1554,14 +1562,15 @@
       <c r="M3" s="20">
         <v>0</v>
       </c>
-      <c r="N3" s="20">
-        <v>0</v>
-      </c>
-      <c r="P3" s="20">
+      <c r="N3" s="20"/>
+      <c r="O3" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="20">
         <v>945.6</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -1597,14 +1606,15 @@
       <c r="M4" s="20">
         <v>0</v>
       </c>
-      <c r="N4" s="20">
-        <v>0</v>
-      </c>
-      <c r="P4" s="20">
+      <c r="N4" s="20"/>
+      <c r="O4" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="20">
         <v>945.6</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -1640,14 +1650,15 @@
       <c r="M5" s="20">
         <v>0</v>
       </c>
-      <c r="N5" s="20">
-        <v>0</v>
-      </c>
-      <c r="P5" s="20">
+      <c r="N5" s="20"/>
+      <c r="O5" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="20">
         <v>945.6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -1683,14 +1694,15 @@
       <c r="M6" s="20">
         <v>0</v>
       </c>
-      <c r="N6" s="20">
-        <v>0</v>
-      </c>
-      <c r="P6" s="20">
+      <c r="N6" s="20"/>
+      <c r="O6" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="20">
         <v>945.6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -1726,14 +1738,15 @@
       <c r="M7" s="20">
         <v>0</v>
       </c>
-      <c r="N7" s="20">
-        <v>0</v>
-      </c>
-      <c r="P7" s="20">
+      <c r="N7" s="20"/>
+      <c r="O7" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="20">
         <v>945.6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -1769,14 +1782,15 @@
       <c r="M8" s="20">
         <v>0</v>
       </c>
-      <c r="N8" s="20">
-        <v>0</v>
-      </c>
-      <c r="P8" s="20">
+      <c r="N8" s="20"/>
+      <c r="O8" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="20">
         <v>945.6</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -1812,14 +1826,15 @@
       <c r="M9" s="20">
         <v>0</v>
       </c>
-      <c r="N9" s="20">
-        <v>0</v>
-      </c>
-      <c r="P9" s="20">
+      <c r="N9" s="20"/>
+      <c r="O9" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="20">
         <v>945.6</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -1855,14 +1870,15 @@
       <c r="M10" s="20">
         <v>0</v>
       </c>
-      <c r="N10" s="20">
-        <v>0</v>
-      </c>
-      <c r="P10" s="20">
+      <c r="N10" s="20"/>
+      <c r="O10" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="20">
         <v>945.6</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
         <v>9</v>
       </c>
@@ -1898,14 +1914,15 @@
       <c r="M11" s="20">
         <v>0</v>
       </c>
-      <c r="N11" s="20">
-        <v>0</v>
-      </c>
-      <c r="P11" s="20">
+      <c r="N11" s="20"/>
+      <c r="O11" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="20">
         <v>945.6</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
         <v>10</v>
       </c>
@@ -1941,14 +1958,15 @@
       <c r="M12" s="20">
         <v>0</v>
       </c>
-      <c r="N12" s="20">
-        <v>0</v>
-      </c>
-      <c r="P12" s="20">
+      <c r="N12" s="20"/>
+      <c r="O12" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="20">
         <v>945.6</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
         <v>11</v>
       </c>
@@ -1984,14 +2002,15 @@
       <c r="M13" s="20">
         <v>0</v>
       </c>
-      <c r="N13" s="20">
-        <v>0</v>
-      </c>
-      <c r="P13" s="20">
+      <c r="N13" s="20"/>
+      <c r="O13" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="20">
         <v>945.6</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -2027,10 +2046,11 @@
       <c r="M14" s="20">
         <v>0</v>
       </c>
-      <c r="N14" s="20">
-        <v>0</v>
-      </c>
-      <c r="P14" s="20">
+      <c r="N14" s="20"/>
+      <c r="O14" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="20">
         <v>945.55</v>
       </c>
     </row>
